--- a/RUDN/Correlations/deep.Corr_in_KNA.nan.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_KNA.nan.xlsx
@@ -13,10 +13,251 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>IT.CEL.SETS.P2:KNA</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:KNA</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:KNA</t>
+  </si>
+  <si>
+    <t>NE.GDI.TOTL.ZS:KNA</t>
+  </si>
+  <si>
+    <t>NE.TRD.GNFS.ZS:KNA</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:KNA</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:KNA</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:KNA</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:KNA</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:KNA</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:KNA</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:KNA</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:KNA</t>
+  </si>
+  <si>
+    <t>SH.DTH.NMRT:KNA</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:KNA</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:KNA</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:KNA</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:KNA</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:KNA</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:KNA</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:KNA</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:KNA</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:KNA</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:KNA</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:KNA</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:KNA</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:KNA:p-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:KNA:p-value</t>
+  </si>
+  <si>
+    <t>NE.GDI.TOTL.ZS:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>NE.GDI.TOTL.ZS:KNA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:KNA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:KNA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:KNA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:KNA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:KNA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.NMRT:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.NMRT:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:KNA:p-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:KNA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:KNA:p-value</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +281,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +599,2305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>-0.7307614809380668</v>
+      </c>
+      <c r="D2">
+        <v>-0.9060694994192191</v>
+      </c>
+      <c r="E2">
+        <v>0.3168691444567268</v>
+      </c>
+      <c r="F2">
+        <v>-0.3878906249597727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>0.002989884883363347</v>
+      </c>
+      <c r="D3">
+        <v>8.077359442730994e-06</v>
+      </c>
+      <c r="E3">
+        <v>0.2696659210626967</v>
+      </c>
+      <c r="F3">
+        <v>0.1705560243194124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.7980536102981022</v>
+      </c>
+      <c r="F4">
+        <v>0.3237118792058901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>0.0006239678429070332</v>
+      </c>
+      <c r="F5">
+        <v>0.2588842434785942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>-0.5317301215792658</v>
+      </c>
+      <c r="D6">
+        <v>-0.4139889851944498</v>
+      </c>
+      <c r="F6">
+        <v>0.3497670870370905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>0.05034994955983531</v>
+      </c>
+      <c r="D7">
+        <v>0.1411365896514583</v>
+      </c>
+      <c r="F7">
+        <v>0.2202434876165666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>0.7589879790185141</v>
+      </c>
+      <c r="C8">
+        <v>-0.9113434917717649</v>
+      </c>
+      <c r="D8">
+        <v>0.9595222101811387</v>
+      </c>
+      <c r="E8">
+        <v>-0.2323598535583174</v>
+      </c>
+      <c r="F8">
+        <v>0.4184624511205697</v>
+      </c>
+      <c r="G8">
+        <v>0.2291308813709529</v>
+      </c>
+      <c r="H8">
+        <v>0.9941164560869343</v>
+      </c>
+      <c r="I8">
+        <v>0.9918453096666594</v>
+      </c>
+      <c r="J8">
+        <v>0.9883853638308757</v>
+      </c>
+      <c r="K8">
+        <v>0.9825210468511776</v>
+      </c>
+      <c r="L8">
+        <v>0.4867853035133659</v>
+      </c>
+      <c r="M8">
+        <v>-0.9617481120078021</v>
+      </c>
+      <c r="N8">
+        <v>-0.9693156683682959</v>
+      </c>
+      <c r="O8">
+        <v>-0.9504083700399881</v>
+      </c>
+      <c r="P8">
+        <v>-0.9676889941063108</v>
+      </c>
+      <c r="Q8">
+        <v>-0.9644487354607905</v>
+      </c>
+      <c r="R8">
+        <v>-0.3408972289000331</v>
+      </c>
+      <c r="S8">
+        <v>-0.2547430990323265</v>
+      </c>
+      <c r="U8">
+        <v>-0.3594524810396494</v>
+      </c>
+      <c r="V8">
+        <v>-0.4021423950508956</v>
+      </c>
+      <c r="W8">
+        <v>-0.2654559393327213</v>
+      </c>
+      <c r="X8">
+        <v>-0.9667668409126713</v>
+      </c>
+      <c r="Y8">
+        <v>0.965059878206299</v>
+      </c>
+      <c r="Z8">
+        <v>0.9677259880511163</v>
+      </c>
+      <c r="AA8">
+        <v>0.9525477234615594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>0.001645156996400361</v>
+      </c>
+      <c r="C9">
+        <v>5.778073753787834e-06</v>
+      </c>
+      <c r="D9">
+        <v>5.818627774793693e-08</v>
+      </c>
+      <c r="E9">
+        <v>0.424067101413569</v>
+      </c>
+      <c r="F9">
+        <v>0.1364589416174757</v>
+      </c>
+      <c r="G9">
+        <v>0.4307159757917423</v>
+      </c>
+      <c r="H9">
+        <v>5.913495189201231e-13</v>
+      </c>
+      <c r="I9">
+        <v>4.17191693945849e-12</v>
+      </c>
+      <c r="J9">
+        <v>3.456941189408603e-11</v>
+      </c>
+      <c r="K9">
+        <v>3.965171537291434e-10</v>
+      </c>
+      <c r="L9">
+        <v>0.07752338137218541</v>
+      </c>
+      <c r="M9">
+        <v>4.164290742912971e-08</v>
+      </c>
+      <c r="N9">
+        <v>1.127880001909854e-08</v>
+      </c>
+      <c r="O9">
+        <v>1.929017267547407e-07</v>
+      </c>
+      <c r="P9">
+        <v>1.532261862202029e-08</v>
+      </c>
+      <c r="Q9">
+        <v>2.699630270677483e-08</v>
+      </c>
+      <c r="R9">
+        <v>0.232968668000837</v>
+      </c>
+      <c r="S9">
+        <v>0.3794414770933037</v>
+      </c>
+      <c r="U9">
+        <v>0.2068529993287977</v>
+      </c>
+      <c r="V9">
+        <v>0.1540365094016369</v>
+      </c>
+      <c r="W9">
+        <v>0.3590109612225719</v>
+      </c>
+      <c r="X9">
+        <v>1.810466623819627e-08</v>
+      </c>
+      <c r="Y9">
+        <v>2.436111585719037e-08</v>
+      </c>
+      <c r="Z9">
+        <v>1.521888106764052e-08</v>
+      </c>
+      <c r="AA9">
+        <v>1.48750237786168e-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>-0.3705708980952055</v>
+      </c>
+      <c r="D10">
+        <v>0.1193427324830226</v>
+      </c>
+      <c r="E10">
+        <v>0.1252582561717007</v>
+      </c>
+      <c r="F10">
+        <v>0.5302723580570368</v>
+      </c>
+      <c r="H10">
+        <v>0.223732979227678</v>
+      </c>
+      <c r="I10">
+        <v>0.259947122745081</v>
+      </c>
+      <c r="J10">
+        <v>0.2669593274366918</v>
+      </c>
+      <c r="K10">
+        <v>0.3454914257741894</v>
+      </c>
+      <c r="L10">
+        <v>-0.3103783767592581</v>
+      </c>
+      <c r="M10">
+        <v>-0.1378070126471855</v>
+      </c>
+      <c r="N10">
+        <v>-0.2166291846968977</v>
+      </c>
+      <c r="O10">
+        <v>-0.1267500804908201</v>
+      </c>
+      <c r="P10">
+        <v>-0.1844656237001944</v>
+      </c>
+      <c r="Q10">
+        <v>-0.1810801098957742</v>
+      </c>
+      <c r="T10">
+        <v>0.176611202408393</v>
+      </c>
+      <c r="V10">
+        <v>-0.1248601316162204</v>
+      </c>
+      <c r="W10">
+        <v>0.1886858234378476</v>
+      </c>
+      <c r="X10">
+        <v>-0.1803858102175752</v>
+      </c>
+      <c r="Y10">
+        <v>0.2163771504836505</v>
+      </c>
+      <c r="Z10">
+        <v>0.2096533009566453</v>
+      </c>
+      <c r="AA10">
+        <v>0.2296758356072416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>0.1921280888831843</v>
+      </c>
+      <c r="D11">
+        <v>0.6844745946401427</v>
+      </c>
+      <c r="E11">
+        <v>0.6696235891221718</v>
+      </c>
+      <c r="F11">
+        <v>0.05110316233940197</v>
+      </c>
+      <c r="H11">
+        <v>0.4419471468593151</v>
+      </c>
+      <c r="I11">
+        <v>0.369440602646002</v>
+      </c>
+      <c r="J11">
+        <v>0.356192871655947</v>
+      </c>
+      <c r="K11">
+        <v>0.2263223382282601</v>
+      </c>
+      <c r="L11">
+        <v>0.2801361081098938</v>
+      </c>
+      <c r="M11">
+        <v>0.6384941005581151</v>
+      </c>
+      <c r="N11">
+        <v>0.456946352027803</v>
+      </c>
+      <c r="O11">
+        <v>0.6658957480115871</v>
+      </c>
+      <c r="P11">
+        <v>0.5278368294536493</v>
+      </c>
+      <c r="Q11">
+        <v>0.5355696326724191</v>
+      </c>
+      <c r="T11">
+        <v>0.5458521771755998</v>
+      </c>
+      <c r="V11">
+        <v>0.6706196420891688</v>
+      </c>
+      <c r="W11">
+        <v>0.5182673824434153</v>
+      </c>
+      <c r="X11">
+        <v>0.5371615701833592</v>
+      </c>
+      <c r="Y11">
+        <v>0.4574830194183489</v>
+      </c>
+      <c r="Z11">
+        <v>0.4719131033006905</v>
+      </c>
+      <c r="AA11">
+        <v>0.429590176927403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>0.7922339722393492</v>
+      </c>
+      <c r="C12">
+        <v>-0.891535178346916</v>
+      </c>
+      <c r="D12">
+        <v>0.9387077968038594</v>
+      </c>
+      <c r="E12">
+        <v>-0.2217033736458111</v>
+      </c>
+      <c r="F12">
+        <v>0.3710625262863144</v>
+      </c>
+      <c r="I12">
+        <v>0.9798650022014751</v>
+      </c>
+      <c r="J12">
+        <v>0.9858918291030346</v>
+      </c>
+      <c r="K12">
+        <v>0.9690391835859975</v>
+      </c>
+      <c r="L12">
+        <v>0.450947367016193</v>
+      </c>
+      <c r="M12">
+        <v>-0.9422639569898964</v>
+      </c>
+      <c r="N12">
+        <v>-0.9469861015954288</v>
+      </c>
+      <c r="O12">
+        <v>-0.9222240696857185</v>
+      </c>
+      <c r="P12">
+        <v>-0.9486913361038448</v>
+      </c>
+      <c r="Q12">
+        <v>-0.9438762229880985</v>
+      </c>
+      <c r="R12">
+        <v>-0.3093759280249601</v>
+      </c>
+      <c r="S12">
+        <v>-0.2326480008723521</v>
+      </c>
+      <c r="U12">
+        <v>-0.307500576228906</v>
+      </c>
+      <c r="V12">
+        <v>-0.3505653376634911</v>
+      </c>
+      <c r="W12">
+        <v>-0.2482130538900173</v>
+      </c>
+      <c r="X12">
+        <v>-0.9476292732035638</v>
+      </c>
+      <c r="Y12">
+        <v>0.9333258872825686</v>
+      </c>
+      <c r="Z12">
+        <v>0.9390947882722785</v>
+      </c>
+      <c r="AA12">
+        <v>0.9142076878978487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>0.0007299770556297501</v>
+      </c>
+      <c r="C13">
+        <v>1.853873966409627e-05</v>
+      </c>
+      <c r="D13">
+        <v>6.701724691919841e-07</v>
+      </c>
+      <c r="E13">
+        <v>0.4462073358200638</v>
+      </c>
+      <c r="F13">
+        <v>0.1914928853480962</v>
+      </c>
+      <c r="I13">
+        <v>9.212739928953578e-10</v>
+      </c>
+      <c r="J13">
+        <v>1.104460693840756e-10</v>
+      </c>
+      <c r="K13">
+        <v>1.189534001302932e-08</v>
+      </c>
+      <c r="L13">
+        <v>0.1055867643564736</v>
+      </c>
+      <c r="M13">
+        <v>4.718736432859787e-07</v>
+      </c>
+      <c r="N13">
+        <v>2.857419964105786e-07</v>
+      </c>
+      <c r="O13">
+        <v>2.698093760329398e-06</v>
+      </c>
+      <c r="P13">
+        <v>2.357218857643427e-07</v>
+      </c>
+      <c r="Q13">
+        <v>3.995393959285232e-07</v>
+      </c>
+      <c r="R13">
+        <v>0.2817742075963274</v>
+      </c>
+      <c r="S13">
+        <v>0.4234763154005644</v>
+      </c>
+      <c r="U13">
+        <v>0.2848538258400983</v>
+      </c>
+      <c r="V13">
+        <v>0.2191199692581301</v>
+      </c>
+      <c r="W13">
+        <v>0.3921924851234542</v>
+      </c>
+      <c r="X13">
+        <v>2.659367780580124e-07</v>
+      </c>
+      <c r="Y13">
+        <v>1.097391029067869e-06</v>
+      </c>
+      <c r="Z13">
+        <v>6.457299106084992e-07</v>
+      </c>
+      <c r="AA13">
+        <v>4.774954013315225e-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>0.7773068903564184</v>
+      </c>
+      <c r="C14">
+        <v>-0.9278419605323407</v>
+      </c>
+      <c r="D14">
+        <v>0.974289252014355</v>
+      </c>
+      <c r="E14">
+        <v>-0.29121558054812</v>
+      </c>
+      <c r="F14">
+        <v>0.3981383787809815</v>
+      </c>
+      <c r="L14">
+        <v>0.4611271640856144</v>
+      </c>
+      <c r="M14">
+        <v>-0.9706280968250391</v>
+      </c>
+      <c r="N14">
+        <v>-0.9845750457055387</v>
+      </c>
+      <c r="O14">
+        <v>-0.9675751763915867</v>
+      </c>
+      <c r="P14">
+        <v>-0.982822178596269</v>
+      </c>
+      <c r="Q14">
+        <v>-0.9811213327441066</v>
+      </c>
+      <c r="R14">
+        <v>-0.3762962207441951</v>
+      </c>
+      <c r="S14">
+        <v>-0.2889923552385074</v>
+      </c>
+      <c r="U14">
+        <v>-0.3993317536097613</v>
+      </c>
+      <c r="V14">
+        <v>-0.4169639526196969</v>
+      </c>
+      <c r="W14">
+        <v>-0.3006040349750296</v>
+      </c>
+      <c r="X14">
+        <v>-0.9821100057225848</v>
+      </c>
+      <c r="Y14">
+        <v>0.9781640477776327</v>
+      </c>
+      <c r="Z14">
+        <v>0.9817133761977589</v>
+      </c>
+      <c r="AA14">
+        <v>0.9636189659156573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>0.001068922064400959</v>
+      </c>
+      <c r="C15">
+        <v>1.742128785009819e-06</v>
+      </c>
+      <c r="D15">
+        <v>3.945767566200979e-09</v>
+      </c>
+      <c r="E15">
+        <v>0.3124211468576782</v>
+      </c>
+      <c r="F15">
+        <v>0.1585664963072829</v>
+      </c>
+      <c r="L15">
+        <v>0.09699728897349397</v>
+      </c>
+      <c r="M15">
+        <v>8.701444600472677e-09</v>
+      </c>
+      <c r="N15">
+        <v>1.881207600511151e-10</v>
+      </c>
+      <c r="O15">
+        <v>1.564546841318503e-08</v>
+      </c>
+      <c r="P15">
+        <v>3.574868990695141e-10</v>
+      </c>
+      <c r="Q15">
+        <v>6.276036836477206e-10</v>
+      </c>
+      <c r="R15">
+        <v>0.1848138489314669</v>
+      </c>
+      <c r="S15">
+        <v>0.3162988431111537</v>
+      </c>
+      <c r="U15">
+        <v>0.1572073162476158</v>
+      </c>
+      <c r="V15">
+        <v>0.1380141069214998</v>
+      </c>
+      <c r="W15">
+        <v>0.2963480830472941</v>
+      </c>
+      <c r="X15">
+        <v>4.554550051708907e-10</v>
+      </c>
+      <c r="Y15">
+        <v>1.493193188094384e-09</v>
+      </c>
+      <c r="Z15">
+        <v>5.190553808462132e-10</v>
+      </c>
+      <c r="AA15">
+        <v>3.094859598877045e-08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>0.81821089252035</v>
+      </c>
+      <c r="C16">
+        <v>-0.9187168078803931</v>
+      </c>
+      <c r="D16">
+        <v>0.9629778238485439</v>
+      </c>
+      <c r="E16">
+        <v>-0.2986561049860324</v>
+      </c>
+      <c r="F16">
+        <v>0.3501095529598117</v>
+      </c>
+      <c r="I16">
+        <v>0.9955614565159361</v>
+      </c>
+      <c r="K16">
+        <v>0.9675446377238972</v>
+      </c>
+      <c r="L16">
+        <v>0.4204957770606141</v>
+      </c>
+      <c r="M16">
+        <v>-0.9585384551614866</v>
+      </c>
+      <c r="N16">
+        <v>-0.9719234403928437</v>
+      </c>
+      <c r="O16">
+        <v>-0.9496508120207952</v>
+      </c>
+      <c r="P16">
+        <v>-0.9731583418764288</v>
+      </c>
+      <c r="Q16">
+        <v>-0.9703642015149642</v>
+      </c>
+      <c r="R16">
+        <v>-0.3588448714088595</v>
+      </c>
+      <c r="S16">
+        <v>-0.2801257243411076</v>
+      </c>
+      <c r="U16">
+        <v>-0.3632149953687426</v>
+      </c>
+      <c r="V16">
+        <v>-0.3728141426258516</v>
+      </c>
+      <c r="W16">
+        <v>-0.2956476865771787</v>
+      </c>
+      <c r="X16">
+        <v>-0.9723541854963184</v>
+      </c>
+      <c r="Y16">
+        <v>0.9557809284155241</v>
+      </c>
+      <c r="Z16">
+        <v>0.9625337403270356</v>
+      </c>
+      <c r="AA16">
+        <v>0.9343439119072929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>0.0003478743095427055</v>
+      </c>
+      <c r="C17">
+        <v>3.488361611914022e-06</v>
+      </c>
+      <c r="D17">
+        <v>3.432076785884378e-08</v>
+      </c>
+      <c r="E17">
+        <v>0.2996426828501272</v>
+      </c>
+      <c r="F17">
+        <v>0.2197610367477061</v>
+      </c>
+      <c r="I17">
+        <v>1.093454257475398e-13</v>
+      </c>
+      <c r="K17">
+        <v>1.573304619355677e-08</v>
+      </c>
+      <c r="L17">
+        <v>0.1343675508125468</v>
+      </c>
+      <c r="M17">
+        <v>6.705979974937766e-08</v>
+      </c>
+      <c r="N17">
+        <v>6.657043517571443e-09</v>
+      </c>
+      <c r="O17">
+        <v>2.109218432724374e-07</v>
+      </c>
+      <c r="P17">
+        <v>5.096075470333597e-09</v>
+      </c>
+      <c r="Q17">
+        <v>9.175931567317712e-09</v>
+      </c>
+      <c r="R17">
+        <v>0.2076775914739751</v>
+      </c>
+      <c r="S17">
+        <v>0.3320345654001113</v>
+      </c>
+      <c r="U17">
+        <v>0.2017928313046075</v>
+      </c>
+      <c r="V17">
+        <v>0.1892406341359827</v>
+      </c>
+      <c r="W17">
+        <v>0.3047723910895556</v>
+      </c>
+      <c r="X17">
+        <v>6.072949764151709e-09</v>
+      </c>
+      <c r="Y17">
+        <v>9.809277671422989e-08</v>
+      </c>
+      <c r="Z17">
+        <v>3.683053008422024e-08</v>
+      </c>
+      <c r="AA17">
+        <v>1.00286055363107e-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>0.6888186177642387</v>
+      </c>
+      <c r="C18">
+        <v>-0.9212693537951357</v>
+      </c>
+      <c r="D18">
+        <v>0.9297141760730008</v>
+      </c>
+      <c r="E18">
+        <v>-0.1406708415657352</v>
+      </c>
+      <c r="F18">
+        <v>0.5481004421032638</v>
+      </c>
+      <c r="I18">
+        <v>0.9771160103153507</v>
+      </c>
+      <c r="L18">
+        <v>0.4576739063354532</v>
+      </c>
+      <c r="M18">
+        <v>-0.9248720524784458</v>
+      </c>
+      <c r="N18">
+        <v>-0.9518524334928467</v>
+      </c>
+      <c r="O18">
+        <v>-0.9354815020376419</v>
+      </c>
+      <c r="P18">
+        <v>-0.9396588132673155</v>
+      </c>
+      <c r="Q18">
+        <v>-0.9369504711421441</v>
+      </c>
+      <c r="R18">
+        <v>-0.3268465083834754</v>
+      </c>
+      <c r="S18">
+        <v>-0.2400589481957271</v>
+      </c>
+      <c r="U18">
+        <v>-0.3427290602704138</v>
+      </c>
+      <c r="V18">
+        <v>-0.4338805397620553</v>
+      </c>
+      <c r="W18">
+        <v>-0.2253698970637386</v>
+      </c>
+      <c r="X18">
+        <v>-0.9385533770157817</v>
+      </c>
+      <c r="Y18">
+        <v>0.9575566790336691</v>
+      </c>
+      <c r="Z18">
+        <v>0.9549103085675378</v>
+      </c>
+      <c r="AA18">
+        <v>0.9567811163375213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>0.006441087440173862</v>
+      </c>
+      <c r="C19">
+        <v>2.896890659685707e-06</v>
+      </c>
+      <c r="D19">
+        <v>1.494068954994634e-06</v>
+      </c>
+      <c r="E19">
+        <v>0.6314645713932648</v>
+      </c>
+      <c r="F19">
+        <v>0.04243623390309598</v>
+      </c>
+      <c r="I19">
+        <v>1.97373879896013e-09</v>
+      </c>
+      <c r="L19">
+        <v>0.09985472124673768</v>
+      </c>
+      <c r="M19">
+        <v>2.204627210824468e-06</v>
+      </c>
+      <c r="N19">
+        <v>1.620697618820476e-07</v>
+      </c>
+      <c r="O19">
+        <v>9.052788512453908e-07</v>
+      </c>
+      <c r="P19">
+        <v>6.114274111296261e-07</v>
+      </c>
+      <c r="Q19">
+        <v>7.909882605693984e-07</v>
+      </c>
+      <c r="R19">
+        <v>0.2540331823528787</v>
+      </c>
+      <c r="S19">
+        <v>0.4084263112171431</v>
+      </c>
+      <c r="U19">
+        <v>0.2303043562800675</v>
+      </c>
+      <c r="V19">
+        <v>0.121136290684647</v>
+      </c>
+      <c r="W19">
+        <v>0.4385260135748861</v>
+      </c>
+      <c r="X19">
+        <v>6.801364638531052e-07</v>
+      </c>
+      <c r="Y19">
+        <v>7.700458316536271e-08</v>
+      </c>
+      <c r="Z19">
+        <v>1.1005714194042e-07</v>
+      </c>
+      <c r="AA19">
+        <v>8.569739309024417e-08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>0.171536222952816</v>
+      </c>
+      <c r="C20">
+        <v>-0.2327677308685419</v>
+      </c>
+      <c r="D20">
+        <v>0.4980338073724908</v>
+      </c>
+      <c r="F20">
+        <v>0.4540777818224205</v>
+      </c>
+      <c r="M20">
+        <v>-0.450170872398342</v>
+      </c>
+      <c r="N20">
+        <v>-0.4441907722840077</v>
+      </c>
+      <c r="O20">
+        <v>-0.537308897610648</v>
+      </c>
+      <c r="P20">
+        <v>-0.4339423528135405</v>
+      </c>
+      <c r="Q20">
+        <v>-0.4379985539799932</v>
+      </c>
+      <c r="R20">
+        <v>-0.2335986282204914</v>
+      </c>
+      <c r="S20">
+        <v>-0.1453285928274402</v>
+      </c>
+      <c r="T20">
+        <v>0.1047459304149435</v>
+      </c>
+      <c r="W20">
+        <v>-0.1878972219463252</v>
+      </c>
+      <c r="X20">
+        <v>-0.4336259815304281</v>
+      </c>
+      <c r="Z20">
+        <v>0.4858546108666056</v>
+      </c>
+      <c r="AA20">
+        <v>0.5386826586877677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>0.5576311445685798</v>
+      </c>
+      <c r="C21">
+        <v>0.4232309570728982</v>
+      </c>
+      <c r="D21">
+        <v>0.06992637504122477</v>
+      </c>
+      <c r="F21">
+        <v>0.1028917085002094</v>
+      </c>
+      <c r="M21">
+        <v>0.1062627132737676</v>
+      </c>
+      <c r="N21">
+        <v>0.1115683719338985</v>
+      </c>
+      <c r="O21">
+        <v>0.04754180779741096</v>
+      </c>
+      <c r="P21">
+        <v>0.1210773239635347</v>
+      </c>
+      <c r="Q21">
+        <v>0.1172503740797312</v>
+      </c>
+      <c r="R21">
+        <v>0.4215302219195561</v>
+      </c>
+      <c r="S21">
+        <v>0.6200934927296036</v>
+      </c>
+      <c r="T21">
+        <v>0.7215668155814194</v>
+      </c>
+      <c r="W21">
+        <v>0.5200496224316908</v>
+      </c>
+      <c r="X21">
+        <v>0.1213793325506658</v>
+      </c>
+      <c r="Z21">
+        <v>0.07817700067137485</v>
+      </c>
+      <c r="AA21">
+        <v>0.04686819396013156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>-0.7587251070112355</v>
+      </c>
+      <c r="C22">
+        <v>0.9081115456249392</v>
+      </c>
+      <c r="D22">
+        <v>-0.980329075563101</v>
+      </c>
+      <c r="E22">
+        <v>0.4091839247405653</v>
+      </c>
+      <c r="F22">
+        <v>-0.2885686608682508</v>
+      </c>
+      <c r="N22">
+        <v>0.9832894418956911</v>
+      </c>
+      <c r="O22">
+        <v>0.9710875285789847</v>
+      </c>
+      <c r="Z22">
+        <v>-0.9849163620952917</v>
+      </c>
+      <c r="AA22">
+        <v>-0.9594387639570773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>0.00165492413628782</v>
+      </c>
+      <c r="C23">
+        <v>7.111599053697165e-06</v>
+      </c>
+      <c r="D23">
+        <v>8.017947241075645e-10</v>
+      </c>
+      <c r="E23">
+        <v>0.1462787548126943</v>
+      </c>
+      <c r="F23">
+        <v>0.3170409372494093</v>
+      </c>
+      <c r="N23">
+        <v>3.032739600515985e-10</v>
+      </c>
+      <c r="O23">
+        <v>7.923966603843436e-09</v>
+      </c>
+      <c r="Z23">
+        <v>1.646074746684633e-10</v>
+      </c>
+      <c r="AA23">
+        <v>5.889901131276877e-08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>-0.7609325768244756</v>
+      </c>
+      <c r="C24">
+        <v>0.9267479598704762</v>
+      </c>
+      <c r="D24">
+        <v>-0.986404372053957</v>
+      </c>
+      <c r="E24">
+        <v>0.3718551596577556</v>
+      </c>
+      <c r="F24">
+        <v>-0.3620250866059366</v>
+      </c>
+      <c r="Z24">
+        <v>-0.9931615550021669</v>
+      </c>
+      <c r="AA24">
+        <v>-0.9746328598580031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>0.00157431854452976</v>
+      </c>
+      <c r="C25">
+        <v>1.90213936190107e-06</v>
+      </c>
+      <c r="D25">
+        <v>8.855257979938776e-11</v>
+      </c>
+      <c r="E25">
+        <v>0.1904715975147629</v>
+      </c>
+      <c r="F25">
+        <v>0.2033845740334383</v>
+      </c>
+      <c r="Z25">
+        <v>1.455001749246111e-12</v>
+      </c>
+      <c r="AA25">
+        <v>3.642464161951864e-09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>-0.7499167573015358</v>
+      </c>
+      <c r="C26">
+        <v>0.8953656195567311</v>
+      </c>
+      <c r="D26">
+        <v>-0.983408718525221</v>
+      </c>
+      <c r="E26">
+        <v>0.3517748090014317</v>
+      </c>
+      <c r="F26">
+        <v>-0.375852254493707</v>
+      </c>
+      <c r="N26">
+        <v>0.9804837728666496</v>
+      </c>
+      <c r="Z26">
+        <v>-0.9862371299920571</v>
+      </c>
+      <c r="AA26">
+        <v>-0.9734503058410294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>0.002009807119600931</v>
+      </c>
+      <c r="C27">
+        <v>1.5069980714392e-05</v>
+      </c>
+      <c r="D27">
+        <v>2.905900325971006e-10</v>
+      </c>
+      <c r="E27">
+        <v>0.2174244866410506</v>
+      </c>
+      <c r="F27">
+        <v>0.1853745316268579</v>
+      </c>
+      <c r="N27">
+        <v>7.649531519807542e-10</v>
+      </c>
+      <c r="Z27">
+        <v>9.52583724000593e-11</v>
+      </c>
+      <c r="AA27">
+        <v>4.775419510943003e-09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>-0.7951908534682693</v>
+      </c>
+      <c r="C28">
+        <v>0.9288439760541454</v>
+      </c>
+      <c r="D28">
+        <v>-0.990993187721107</v>
+      </c>
+      <c r="E28">
+        <v>0.4182725369797736</v>
+      </c>
+      <c r="F28">
+        <v>-0.314253521684065</v>
+      </c>
+      <c r="M28">
+        <v>0.9914757153328325</v>
+      </c>
+      <c r="N28">
+        <v>0.9927429502327626</v>
+      </c>
+      <c r="O28">
+        <v>0.9808247629101883</v>
+      </c>
+      <c r="Z28">
+        <v>-0.9923334818064523</v>
+      </c>
+      <c r="AA28">
+        <v>-0.9652163167102883</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>0.0006744492313675002</v>
+      </c>
+      <c r="C29">
+        <v>1.605466880510797e-06</v>
+      </c>
+      <c r="D29">
+        <v>7.559999831046579e-12</v>
+      </c>
+      <c r="E29">
+        <v>0.13665538516871</v>
+      </c>
+      <c r="F29">
+        <v>0.2738567159517691</v>
+      </c>
+      <c r="M29">
+        <v>5.438678558588136e-12</v>
+      </c>
+      <c r="N29">
+        <v>2.076296284207723e-12</v>
+      </c>
+      <c r="O29">
+        <v>6.886901531488987e-10</v>
+      </c>
+      <c r="Z29">
+        <v>2.883603595466788e-12</v>
+      </c>
+      <c r="AA29">
+        <v>2.37220219330701e-08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>-0.7915730203925252</v>
+      </c>
+      <c r="C30">
+        <v>0.9284288020971027</v>
+      </c>
+      <c r="D30">
+        <v>-0.9913417024054255</v>
+      </c>
+      <c r="E30">
+        <v>0.4201145622829866</v>
+      </c>
+      <c r="F30">
+        <v>-0.3155884008526428</v>
+      </c>
+      <c r="M30">
+        <v>0.9905630365687355</v>
+      </c>
+      <c r="N30">
+        <v>0.9930969329094161</v>
+      </c>
+      <c r="O30">
+        <v>0.9828751466269403</v>
+      </c>
+      <c r="P30">
+        <v>0.999734500443293</v>
+      </c>
+      <c r="Z30">
+        <v>-0.9930323798312601</v>
+      </c>
+      <c r="AA30">
+        <v>-0.966772717308459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>0.00074287625430242</v>
+      </c>
+      <c r="C31">
+        <v>1.660976771269416e-06</v>
+      </c>
+      <c r="D31">
+        <v>5.970567865216803e-12</v>
+      </c>
+      <c r="E31">
+        <v>0.134758003571294</v>
+      </c>
+      <c r="F31">
+        <v>0.2717131501314116</v>
+      </c>
+      <c r="M31">
+        <v>9.992795147582903e-12</v>
+      </c>
+      <c r="N31">
+        <v>1.539258746140782e-12</v>
+      </c>
+      <c r="O31">
+        <v>3.509638857210423e-10</v>
+      </c>
+      <c r="P31">
+        <v>5.053912330403592e-21</v>
+      </c>
+      <c r="Z31">
+        <v>1.627442415547512e-12</v>
+      </c>
+      <c r="AA31">
+        <v>1.808569751532206e-08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>-0.211619267357284</v>
+      </c>
+      <c r="C32">
+        <v>0.3543154392836316</v>
+      </c>
+      <c r="D32">
+        <v>-0.417234075251045</v>
+      </c>
+      <c r="E32">
+        <v>0.131276246269825</v>
+      </c>
+      <c r="F32">
+        <v>-0.1580285922879696</v>
+      </c>
+      <c r="M32">
+        <v>0.3963620923819595</v>
+      </c>
+      <c r="N32">
+        <v>0.4166422177794892</v>
+      </c>
+      <c r="O32">
+        <v>0.4113706938136537</v>
+      </c>
+      <c r="P32">
+        <v>0.384274522344698</v>
+      </c>
+      <c r="Q32">
+        <v>0.3981938832189518</v>
+      </c>
+      <c r="S32">
+        <v>0.9731236802019041</v>
+      </c>
+      <c r="W32">
+        <v>0.8829415812135227</v>
+      </c>
+      <c r="X32">
+        <v>0.3825509445968346</v>
+      </c>
+      <c r="Z32">
+        <v>-0.3992019031951125</v>
+      </c>
+      <c r="AA32">
+        <v>-0.4059362692564834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>0.4676715675797968</v>
+      </c>
+      <c r="C33">
+        <v>0.2138896749743842</v>
+      </c>
+      <c r="D33">
+        <v>0.1377328979441226</v>
+      </c>
+      <c r="E33">
+        <v>0.6546296519108694</v>
+      </c>
+      <c r="F33">
+        <v>0.5894927949025205</v>
+      </c>
+      <c r="M33">
+        <v>0.1606038329773448</v>
+      </c>
+      <c r="N33">
+        <v>0.1383495469883682</v>
+      </c>
+      <c r="O33">
+        <v>0.1439233876254066</v>
+      </c>
+      <c r="P33">
+        <v>0.1749234995913751</v>
+      </c>
+      <c r="Q33">
+        <v>0.1585031096295053</v>
+      </c>
+      <c r="S33">
+        <v>5.135302218900575e-09</v>
+      </c>
+      <c r="W33">
+        <v>2.87340590694928e-05</v>
+      </c>
+      <c r="X33">
+        <v>0.1770304581254254</v>
+      </c>
+      <c r="Z33">
+        <v>0.1573548350486456</v>
+      </c>
+      <c r="AA33">
+        <v>0.1498237922303184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34">
+        <v>-0.1416072916111322</v>
+      </c>
+      <c r="C34">
+        <v>0.2823089177524727</v>
+      </c>
+      <c r="D34">
+        <v>-0.3002470215588533</v>
+      </c>
+      <c r="F34">
+        <v>-0.1378106030173486</v>
+      </c>
+      <c r="M34">
+        <v>0.2899369816446296</v>
+      </c>
+      <c r="N34">
+        <v>0.3064124549482866</v>
+      </c>
+      <c r="O34">
+        <v>0.2882264857136303</v>
+      </c>
+      <c r="P34">
+        <v>0.2786693195210806</v>
+      </c>
+      <c r="Q34">
+        <v>0.2915512637136411</v>
+      </c>
+      <c r="W34">
+        <v>0.8271795719346825</v>
+      </c>
+      <c r="X34">
+        <v>0.2769310383051097</v>
+      </c>
+      <c r="Z34">
+        <v>-0.2903502475432948</v>
+      </c>
+      <c r="AA34">
+        <v>-0.2969547436410865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>0.6291722006351046</v>
+      </c>
+      <c r="C35">
+        <v>0.3281199670373779</v>
+      </c>
+      <c r="D35">
+        <v>0.2969503305375715</v>
+      </c>
+      <c r="F35">
+        <v>0.6384852698229198</v>
+      </c>
+      <c r="M35">
+        <v>0.3146479120855971</v>
+      </c>
+      <c r="N35">
+        <v>0.2866497113609534</v>
+      </c>
+      <c r="O35">
+        <v>0.3176409746598579</v>
+      </c>
+      <c r="P35">
+        <v>0.33466048560558</v>
+      </c>
+      <c r="Q35">
+        <v>0.3118380302620201</v>
+      </c>
+      <c r="W35">
+        <v>0.0002621501635717559</v>
+      </c>
+      <c r="X35">
+        <v>0.3378097905562464</v>
+      </c>
+      <c r="Z35">
+        <v>0.3139271937294004</v>
+      </c>
+      <c r="AA35">
+        <v>0.3025375256163692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <v>-0.1174562569446403</v>
+      </c>
+      <c r="C36">
+        <v>0.1381969025031742</v>
+      </c>
+      <c r="E36">
+        <v>0.1436404502765688</v>
+      </c>
+      <c r="F36">
+        <v>0.2753476071786979</v>
+      </c>
+      <c r="R36">
+        <v>0.6788303190400544</v>
+      </c>
+      <c r="S36">
+        <v>0.748267773605779</v>
+      </c>
+      <c r="W36">
+        <v>0.5865772638329653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37">
+        <v>0.6892332892160011</v>
+      </c>
+      <c r="C37">
+        <v>0.637535402991493</v>
+      </c>
+      <c r="E37">
+        <v>0.6242058508128214</v>
+      </c>
+      <c r="F37">
+        <v>0.3406928769743276</v>
+      </c>
+      <c r="R37">
+        <v>0.007598037129159768</v>
+      </c>
+      <c r="S37">
+        <v>0.002082476895489688</v>
+      </c>
+      <c r="W37">
+        <v>0.02746183655810158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38">
+        <v>-0.153222941683386</v>
+      </c>
+      <c r="C38">
+        <v>0.3854495133730781</v>
+      </c>
+      <c r="D38">
+        <v>-0.4616446637015807</v>
+      </c>
+      <c r="E38">
+        <v>0.2058956164865864</v>
+      </c>
+      <c r="F38">
+        <v>-0.2185785083047951</v>
+      </c>
+      <c r="L38">
+        <v>-0.3268735542823979</v>
+      </c>
+      <c r="M38">
+        <v>0.4472686642842451</v>
+      </c>
+      <c r="N38">
+        <v>0.4576230519868167</v>
+      </c>
+      <c r="O38">
+        <v>0.4560255342524807</v>
+      </c>
+      <c r="P38">
+        <v>0.4298217595663705</v>
+      </c>
+      <c r="Q38">
+        <v>0.4448651720004121</v>
+      </c>
+      <c r="R38">
+        <v>0.9661808069310619</v>
+      </c>
+      <c r="S38">
+        <v>0.9271099956963575</v>
+      </c>
+      <c r="T38">
+        <v>0.6309293459075193</v>
+      </c>
+      <c r="V38">
+        <v>0.3565327787969741</v>
+      </c>
+      <c r="W38">
+        <v>0.8387671424836194</v>
+      </c>
+      <c r="X38">
+        <v>0.4284629345942523</v>
+      </c>
+      <c r="Y38">
+        <v>-0.4664412283163798</v>
+      </c>
+      <c r="Z38">
+        <v>-0.4588216113117548</v>
+      </c>
+      <c r="AA38">
+        <v>-0.4799875588944336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <v>0.6010008775504906</v>
+      </c>
+      <c r="C39">
+        <v>0.173496502217611</v>
+      </c>
+      <c r="D39">
+        <v>0.09657401994346493</v>
+      </c>
+      <c r="E39">
+        <v>0.4800711329257786</v>
+      </c>
+      <c r="F39">
+        <v>0.4528059704526722</v>
+      </c>
+      <c r="L39">
+        <v>0.2539915676170951</v>
+      </c>
+      <c r="M39">
+        <v>0.1088154603670526</v>
+      </c>
+      <c r="N39">
+        <v>0.09989723110890676</v>
+      </c>
+      <c r="O39">
+        <v>0.1012389983068046</v>
+      </c>
+      <c r="P39">
+        <v>0.125050931156575</v>
+      </c>
+      <c r="Q39">
+        <v>0.1109611443419675</v>
+      </c>
+      <c r="R39">
+        <v>2.008110296308186e-08</v>
+      </c>
+      <c r="S39">
+        <v>1.847900904829446e-06</v>
+      </c>
+      <c r="T39">
+        <v>0.01554394643734115</v>
+      </c>
+      <c r="V39">
+        <v>0.2108342477487868</v>
+      </c>
+      <c r="W39">
+        <v>0.0001775146299270006</v>
+      </c>
+      <c r="X39">
+        <v>0.1263803863260885</v>
+      </c>
+      <c r="Y39">
+        <v>0.09271169374774793</v>
+      </c>
+      <c r="Z39">
+        <v>0.09889866367532764</v>
+      </c>
+      <c r="AA39">
+        <v>0.08238716640440752</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40">
+        <v>0.313419631685819</v>
+      </c>
+      <c r="D40">
+        <v>-0.4111849279873594</v>
+      </c>
+      <c r="E40">
+        <v>0.1330612174022339</v>
+      </c>
+      <c r="F40">
+        <v>-0.4089440358483195</v>
+      </c>
+      <c r="L40">
+        <v>-0.2877685817816073</v>
+      </c>
+      <c r="M40">
+        <v>0.4843222504362149</v>
+      </c>
+      <c r="N40">
+        <v>0.4285265851182716</v>
+      </c>
+      <c r="O40">
+        <v>0.463652813801552</v>
+      </c>
+      <c r="P40">
+        <v>0.4376906433541692</v>
+      </c>
+      <c r="Q40">
+        <v>0.4382795462870676</v>
+      </c>
+      <c r="R40">
+        <v>0.2613838422748508</v>
+      </c>
+      <c r="S40">
+        <v>0.208274975707897</v>
+      </c>
+      <c r="T40">
+        <v>-0.1317492144624769</v>
+      </c>
+      <c r="W40">
+        <v>0.2999726664579599</v>
+      </c>
+      <c r="X40">
+        <v>0.4372013723433086</v>
+      </c>
+      <c r="Y40">
+        <v>-0.4961129795021408</v>
+      </c>
+      <c r="Z40">
+        <v>-0.4836943902532013</v>
+      </c>
+      <c r="AA40">
+        <v>-0.520010344510581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41">
+        <v>0.275200862363585</v>
+      </c>
+      <c r="D41">
+        <v>0.1441224887385946</v>
+      </c>
+      <c r="E41">
+        <v>0.6502052332658516</v>
+      </c>
+      <c r="F41">
+        <v>0.1465386865414122</v>
+      </c>
+      <c r="L41">
+        <v>0.3184449639760933</v>
+      </c>
+      <c r="M41">
+        <v>0.07926162622968874</v>
+      </c>
+      <c r="N41">
+        <v>0.126317899337485</v>
+      </c>
+      <c r="O41">
+        <v>0.09494366523247501</v>
+      </c>
+      <c r="P41">
+        <v>0.1175379547260911</v>
+      </c>
+      <c r="Q41">
+        <v>0.116988352925557</v>
+      </c>
+      <c r="R41">
+        <v>0.3667048972928766</v>
+      </c>
+      <c r="S41">
+        <v>0.4748977484826368</v>
+      </c>
+      <c r="T41">
+        <v>0.6534562692241768</v>
+      </c>
+      <c r="W41">
+        <v>0.2974136237786387</v>
+      </c>
+      <c r="X41">
+        <v>0.1179959084154605</v>
+      </c>
+      <c r="Y41">
+        <v>0.0711844939180233</v>
+      </c>
+      <c r="Z41">
+        <v>0.07970908344901334</v>
+      </c>
+      <c r="AA41">
+        <v>0.05663859959676383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42">
+        <v>-0.2463440173105896</v>
+      </c>
+      <c r="C42">
+        <v>0.2150875002036855</v>
+      </c>
+      <c r="D42">
+        <v>-0.3757257968668586</v>
+      </c>
+      <c r="E42">
+        <v>0.145499383951894</v>
+      </c>
+      <c r="M42">
+        <v>0.3349064999458624</v>
+      </c>
+      <c r="N42">
+        <v>0.3341900893059342</v>
+      </c>
+      <c r="O42">
+        <v>0.3403558986166331</v>
+      </c>
+      <c r="P42">
+        <v>0.3268544795007969</v>
+      </c>
+      <c r="Q42">
+        <v>0.337999157919448</v>
+      </c>
+      <c r="X42">
+        <v>0.3263078829137426</v>
+      </c>
+      <c r="Z42">
+        <v>-0.3178467530704697</v>
+      </c>
+      <c r="AA42">
+        <v>-0.2974964225098189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43">
+        <v>0.395883106503685</v>
+      </c>
+      <c r="C43">
+        <v>0.4602339297247918</v>
+      </c>
+      <c r="D43">
+        <v>0.1855344338496916</v>
+      </c>
+      <c r="E43">
+        <v>0.6196780129672097</v>
+      </c>
+      <c r="M43">
+        <v>0.2418138401101915</v>
+      </c>
+      <c r="N43">
+        <v>0.2428851361082713</v>
+      </c>
+      <c r="O43">
+        <v>0.2337596232869977</v>
+      </c>
+      <c r="P43">
+        <v>0.254020916999081</v>
+      </c>
+      <c r="Q43">
+        <v>0.2372223633935623</v>
+      </c>
+      <c r="X43">
+        <v>0.2548628074549016</v>
+      </c>
+      <c r="Z43">
+        <v>0.2681094450279785</v>
+      </c>
+      <c r="AA43">
+        <v>0.3016141202537417</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44">
+        <v>-0.7960862876186</v>
+      </c>
+      <c r="C44">
+        <v>0.9298071014128602</v>
+      </c>
+      <c r="D44">
+        <v>-0.9907047563619236</v>
+      </c>
+      <c r="E44">
+        <v>0.4182687911521156</v>
+      </c>
+      <c r="F44">
+        <v>-0.3112570445213464</v>
+      </c>
+      <c r="M44">
+        <v>0.991146740933795</v>
+      </c>
+      <c r="N44">
+        <v>0.9917430716675129</v>
+      </c>
+      <c r="O44">
+        <v>0.9812895214544183</v>
+      </c>
+      <c r="P44">
+        <v>0.9999228356684925</v>
+      </c>
+      <c r="Q44">
+        <v>0.9997351495060185</v>
+      </c>
+      <c r="Z44">
+        <v>-0.9921085320091322</v>
+      </c>
+      <c r="AA44">
+        <v>-0.9648807557944166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45">
+        <v>0.000658319717776363</v>
+      </c>
+      <c r="C45">
+        <v>1.482559679360364e-06</v>
+      </c>
+      <c r="D45">
+        <v>9.128310258733317e-12</v>
+      </c>
+      <c r="E45">
+        <v>0.1366592616838766</v>
+      </c>
+      <c r="F45">
+        <v>0.278704909240782</v>
+      </c>
+      <c r="M45">
+        <v>6.821149368336793e-12</v>
+      </c>
+      <c r="N45">
+        <v>4.494759382917026e-12</v>
+      </c>
+      <c r="O45">
+        <v>5.950103894897141e-10</v>
+      </c>
+      <c r="P45">
+        <v>3.047332009016313e-24</v>
+      </c>
+      <c r="Q45">
+        <v>4.98023951780721e-21</v>
+      </c>
+      <c r="Z45">
+        <v>3.428335718653371e-12</v>
+      </c>
+      <c r="AA45">
+        <v>2.511034256311701e-08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46">
+        <v>0.695976291296466</v>
+      </c>
+      <c r="C46">
+        <v>-0.9264079827124146</v>
+      </c>
+      <c r="D46">
+        <v>0.9796324251205334</v>
+      </c>
+      <c r="E46">
+        <v>-0.3279833904233717</v>
+      </c>
+      <c r="F46">
+        <v>0.4418015268826349</v>
+      </c>
+      <c r="L46">
+        <v>0.5034498004774092</v>
+      </c>
+      <c r="M46">
+        <v>-0.9790613730587008</v>
+      </c>
+      <c r="N46">
+        <v>-0.9895009008557303</v>
+      </c>
+      <c r="O46">
+        <v>-0.9843600113870626</v>
+      </c>
+      <c r="P46">
+        <v>-0.9859809492801909</v>
+      </c>
+      <c r="Q46">
+        <v>-0.9869499433698111</v>
+      </c>
+      <c r="R46">
+        <v>-0.4021726011559587</v>
+      </c>
+      <c r="S46">
+        <v>-0.2930454001108889</v>
+      </c>
+      <c r="W46">
+        <v>-0.3121584087279273</v>
+      </c>
+      <c r="X46">
+        <v>-0.9857208683550039</v>
+      </c>
+      <c r="Z46">
+        <v>0.9990223996916764</v>
+      </c>
+      <c r="AA46">
+        <v>0.9952615658603313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47">
+        <v>0.005700050304294238</v>
+      </c>
+      <c r="C47">
+        <v>1.954260620272674e-06</v>
+      </c>
+      <c r="D47">
+        <v>9.864998988971106e-10</v>
+      </c>
+      <c r="E47">
+        <v>0.2522874476824388</v>
+      </c>
+      <c r="F47">
+        <v>0.1137379341119356</v>
+      </c>
+      <c r="L47">
+        <v>0.06646427852620425</v>
+      </c>
+      <c r="M47">
+        <v>1.163093234829741e-09</v>
+      </c>
+      <c r="N47">
+        <v>1.890659112518925e-11</v>
+      </c>
+      <c r="O47">
+        <v>2.043198963265222e-10</v>
+      </c>
+      <c r="P47">
+        <v>1.063459693567409e-10</v>
+      </c>
+      <c r="Q47">
+        <v>6.934104190400407e-11</v>
+      </c>
+      <c r="R47">
+        <v>0.1540026635126762</v>
+      </c>
+      <c r="S47">
+        <v>0.3092501247355097</v>
+      </c>
+      <c r="W47">
+        <v>0.2772412384366981</v>
+      </c>
+      <c r="X47">
+        <v>1.186797946912595e-10</v>
+      </c>
+      <c r="Z47">
+        <v>1.25762168293452e-17</v>
+      </c>
+      <c r="AA47">
+        <v>1.617659999099683e-13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48">
+        <v>0.72340623554909</v>
+      </c>
+      <c r="C48">
+        <v>-0.9286679137842088</v>
+      </c>
+      <c r="D48">
+        <v>0.9850170211617326</v>
+      </c>
+      <c r="E48">
+        <v>-0.353282361908147</v>
+      </c>
+      <c r="F48">
+        <v>0.4089877839087822</v>
+      </c>
+      <c r="AA48">
+        <v>0.9899901977431671</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49">
+        <v>0.003453298967534114</v>
+      </c>
+      <c r="C49">
+        <v>1.628817108072086e-06</v>
+      </c>
+      <c r="D49">
+        <v>1.581598309024756e-10</v>
+      </c>
+      <c r="E49">
+        <v>0.2153226393707116</v>
+      </c>
+      <c r="F49">
+        <v>0.1464912604694203</v>
+      </c>
+      <c r="AA49">
+        <v>1.42138325722145e-11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50">
+        <v>0.6308492281215998</v>
+      </c>
+      <c r="C50">
+        <v>-0.9150554869049601</v>
+      </c>
+      <c r="D50">
+        <v>0.9610405208608714</v>
+      </c>
+      <c r="E50">
+        <v>-0.2700784310025156</v>
+      </c>
+      <c r="F50">
+        <v>0.5109325679178313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51">
+        <v>0.0155610910574887</v>
+      </c>
+      <c r="C51">
+        <v>4.50720363967994e-06</v>
+      </c>
+      <c r="D51">
+        <v>4.641239902632421e-08</v>
+      </c>
+      <c r="E51">
+        <v>0.3503849248420021</v>
+      </c>
+      <c r="F51">
+        <v>0.06188482414331742</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>